--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value281.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value281.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.020518010086644</v>
+        <v>1.299146413803101</v>
       </c>
       <c r="B1">
-        <v>2.221759742258921</v>
+        <v>1.384466052055359</v>
       </c>
       <c r="C1">
-        <v>2.475310024450781</v>
+        <v>1.579964518547058</v>
       </c>
       <c r="D1">
-        <v>2.331713593675932</v>
+        <v>2.51872730255127</v>
       </c>
       <c r="E1">
-        <v>0.9299963112141677</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
